--- a/census-data.xlsx
+++ b/census-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgoSpring\python\Union_Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B825667-F610-40A6-8395-142D4645B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51422D39-3853-4060-A14E-A1E9C10F0272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
